--- a/va_facility_data_2025-02-20/Southeast Washington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Washington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Southeast Washington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Washington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R61f4a45db5af4310b77e01d7d8c96410"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1cf16d1d38ec4a188c1f4af71aa32bb9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcb491e5f694c4ed490f8904f3d8d627a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2247d99f48094adeae0eaa6fea178d6e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R28a1345dc5de4c1e8c263acc2b8aad93"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdb6e65a2c4ea44af985d221a6e8ae96c"/>
   </x:sheets>
 </x:workbook>
 </file>
